--- a/src/assets/plantillas/plantilla_remuneraciones.xlsx
+++ b/src/assets/plantillas/plantilla_remuneraciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVIF\INFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6FF33-961C-4BD7-A900-67ECDF1E55AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F83B8D4-C483-4807-BA00-2E4AEA4A1C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{AA62E565-CCF0-428E-A50D-FE818BBBF96D}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="40">
   <si>
     <t>CUIL</t>
   </si>
@@ -174,11 +174,20 @@
   <si>
     <t>regimen</t>
   </si>
+  <si>
+    <t>Legajo</t>
+  </si>
+  <si>
+    <t>legajo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -281,14 +290,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,11 +388,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="122">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2121,15 +2286,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Celeste con borde grueso" pivot="0" count="9" xr9:uid="{CABF12A2-FEE9-4BF6-A228-235EE9C2B965}">
-      <tableStyleElement type="wholeTable" dxfId="114"/>
-      <tableStyleElement type="headerRow" dxfId="113"/>
-      <tableStyleElement type="totalRow" dxfId="112"/>
-      <tableStyleElement type="firstColumn" dxfId="111"/>
-      <tableStyleElement type="lastColumn" dxfId="110"/>
-      <tableStyleElement type="firstRowStripe" dxfId="109"/>
-      <tableStyleElement type="secondRowStripe" dxfId="108"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="107"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="106"/>
+      <tableStyleElement type="wholeTable" dxfId="121"/>
+      <tableStyleElement type="headerRow" dxfId="120"/>
+      <tableStyleElement type="totalRow" dxfId="119"/>
+      <tableStyleElement type="firstColumn" dxfId="118"/>
+      <tableStyleElement type="lastColumn" dxfId="117"/>
+      <tableStyleElement type="firstRowStripe" dxfId="116"/>
+      <tableStyleElement type="secondRowStripe" dxfId="115"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="114"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="113"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2144,161 +2309,168 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5F322137-BE7E-4124-A20B-B16BCDF1DA5A}" name="planta_politica" displayName="planta_politica" ref="A2:N3" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
-  <autoFilter ref="A2:N3" xr:uid="{5F322137-BE7E-4124-A20B-B16BCDF1DA5A}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{6221030C-BDC8-47D7-8432-7CE0671E20A4}" name="CUIL" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{B4EC62CC-9B4B-4360-98DD-367F68593BBE}" name="Apellido y nombre" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{DCC70BDF-34B5-4E08-A3E1-B14CE45E55EC}" name="Situacion de resvista" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{7ED86875-1384-42B1-B5B1-51E3BDBAE872}" name="Fecha de alta" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{6A30B8AA-55ED-4E07-B19D-FCFAE639C53F}" name="Remuneracion neta" dataDxfId="99"/>
-    <tableColumn id="15" xr3:uid="{5E98BB4A-E594-495F-B6F8-B56B8868ED21}" name="Tipo liquidacion" dataDxfId="98"/>
-    <tableColumn id="6" xr3:uid="{4CC7445D-552B-4E44-9414-914415FEAC64}" name="Bonificacion" dataDxfId="97"/>
-    <tableColumn id="7" xr3:uid="{68D6AAB0-8D46-43A0-95AE-30360229FDE6}" name="Cantidad hs extras 50" dataDxfId="96"/>
-    <tableColumn id="8" xr3:uid="{DC651047-649B-4006-9F62-EB1D16E206B2}" name="Importe hs extras 50" dataDxfId="95"/>
-    <tableColumn id="9" xr3:uid="{A6AC2562-5696-484C-B854-147C59E734CB}" name="Cantidad hs extras 100" dataDxfId="94"/>
-    <tableColumn id="10" xr3:uid="{CC7FE65A-DE1E-4516-9B9F-7A1232EA4B7B}" name="Importe hs extras 100" dataDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{E5ECAE55-D8B2-422D-ABBF-15C2F115B74B}" name="ART" dataDxfId="92"/>
-    <tableColumn id="12" xr3:uid="{236167A3-167F-4CB8-B19E-555C3AD6807F}" name="Seguro de vida" dataDxfId="91"/>
-    <tableColumn id="13" xr3:uid="{F11D8C7A-2E73-42FA-8FE9-F8AB8FFB6837}" name="Otros conceptos" dataDxfId="90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5F322137-BE7E-4124-A20B-B16BCDF1DA5A}" name="planta_politica" displayName="planta_politica" ref="A2:O3" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+  <autoFilter ref="A2:O3" xr:uid="{5F322137-BE7E-4124-A20B-B16BCDF1DA5A}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{6221030C-BDC8-47D7-8432-7CE0671E20A4}" name="CUIL" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{B4EC62CC-9B4B-4360-98DD-367F68593BBE}" name="Apellido y nombre" dataDxfId="109"/>
+    <tableColumn id="14" xr3:uid="{1DCAC7A1-3F6B-48B7-AAD8-3F809122BF83}" name="Legajo" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DCC70BDF-34B5-4E08-A3E1-B14CE45E55EC}" name="Situacion de resvista" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{7ED86875-1384-42B1-B5B1-51E3BDBAE872}" name="Fecha de alta" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{6A30B8AA-55ED-4E07-B19D-FCFAE639C53F}" name="Remuneracion neta" dataDxfId="106"/>
+    <tableColumn id="15" xr3:uid="{5E98BB4A-E594-495F-B6F8-B56B8868ED21}" name="Tipo liquidacion" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{4CC7445D-552B-4E44-9414-914415FEAC64}" name="Bonificacion" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{68D6AAB0-8D46-43A0-95AE-30360229FDE6}" name="Cantidad hs extras 50" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{DC651047-649B-4006-9F62-EB1D16E206B2}" name="Importe hs extras 50" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{A6AC2562-5696-484C-B854-147C59E734CB}" name="Cantidad hs extras 100" dataDxfId="101"/>
+    <tableColumn id="10" xr3:uid="{CC7FE65A-DE1E-4516-9B9F-7A1232EA4B7B}" name="Importe hs extras 100" dataDxfId="100"/>
+    <tableColumn id="11" xr3:uid="{E5ECAE55-D8B2-422D-ABBF-15C2F115B74B}" name="ART" dataDxfId="99"/>
+    <tableColumn id="12" xr3:uid="{236167A3-167F-4CB8-B19E-555C3AD6807F}" name="Seguro de vida" dataDxfId="98"/>
+    <tableColumn id="13" xr3:uid="{F11D8C7A-2E73-42FA-8FE9-F8AB8FFB6837}" name="Otros conceptos" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="Celeste con borde grueso" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7D014DE1-DEE7-4AA0-88EC-FC2EA0F96777}" name="planta_permanente" displayName="planta_permanente" ref="A7:N8" totalsRowShown="0" dataDxfId="89">
-  <autoFilter ref="A7:N8" xr:uid="{7D014DE1-DEE7-4AA0-88EC-FC2EA0F96777}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{2B457316-1D02-424A-BA2C-39CEA73FC5EB}" name="CUIL" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{A5A169A0-497A-4469-A27C-8665C27AFA69}" name="Apeliido y nombre" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{F0477CB6-A2A9-456D-9A4F-37B74E198B58}" name="Situacion de resvista" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{76638FCA-705D-4F26-81F0-D868822D8600}" name="Fecha de alta" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{D6C5155A-8AF7-453F-BAA2-E67FEEAEAA11}" name="Remuneracion neta" dataDxfId="84"/>
-    <tableColumn id="15" xr3:uid="{FF0B2C1B-5478-4501-9FC1-250B48CE4A4E}" name="Tipo liquidacion" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{DD896FBB-D560-43AD-9A77-04EB4A00401D}" name="Bonificacion" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{2032AB3B-88DE-472F-8074-4D2BAEFCFB9F}" name="Cantidad hs extras 50" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{61D9A5E6-7635-4C44-9E56-99E11F4FCA94}" name="Importe hs extras 50" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{657FDFF9-C917-4318-BB22-747690583C8A}" name="Cantidad hs extras 100" dataDxfId="79"/>
-    <tableColumn id="10" xr3:uid="{12DF0B1A-EC30-486A-B5B7-30F154B94CA8}" name="Importe hs extras 100" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{9FE12DB6-091A-4B47-BDDE-F2AC7382EA08}" name="ART" dataDxfId="77"/>
-    <tableColumn id="12" xr3:uid="{11E000C9-972E-4C33-B30E-866551FD6EFB}" name="Seguro de vida" dataDxfId="76"/>
-    <tableColumn id="13" xr3:uid="{49872571-DA0E-45EB-9AB2-A14C23A945D1}" name="Otros conceptos" dataDxfId="75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7D014DE1-DEE7-4AA0-88EC-FC2EA0F96777}" name="planta_permanente" displayName="planta_permanente" ref="A7:O8" totalsRowShown="0" dataDxfId="96">
+  <autoFilter ref="A7:O8" xr:uid="{7D014DE1-DEE7-4AA0-88EC-FC2EA0F96777}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{2B457316-1D02-424A-BA2C-39CEA73FC5EB}" name="CUIL" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{A5A169A0-497A-4469-A27C-8665C27AFA69}" name="Apeliido y nombre" dataDxfId="94"/>
+    <tableColumn id="14" xr3:uid="{0ECC5840-789B-45B7-A152-57543AFF36D8}" name="Legajo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F0477CB6-A2A9-456D-9A4F-37B74E198B58}" name="Situacion de resvista" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{76638FCA-705D-4F26-81F0-D868822D8600}" name="Fecha de alta" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{D6C5155A-8AF7-453F-BAA2-E67FEEAEAA11}" name="Remuneracion neta" dataDxfId="91"/>
+    <tableColumn id="15" xr3:uid="{FF0B2C1B-5478-4501-9FC1-250B48CE4A4E}" name="Tipo liquidacion" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{DD896FBB-D560-43AD-9A77-04EB4A00401D}" name="Bonificacion" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{2032AB3B-88DE-472F-8074-4D2BAEFCFB9F}" name="Cantidad hs extras 50" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{61D9A5E6-7635-4C44-9E56-99E11F4FCA94}" name="Importe hs extras 50" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{657FDFF9-C917-4318-BB22-747690583C8A}" name="Cantidad hs extras 100" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{12DF0B1A-EC30-486A-B5B7-30F154B94CA8}" name="Importe hs extras 100" dataDxfId="85"/>
+    <tableColumn id="11" xr3:uid="{9FE12DB6-091A-4B47-BDDE-F2AC7382EA08}" name="ART" dataDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{11E000C9-972E-4C33-B30E-866551FD6EFB}" name="Seguro de vida" dataDxfId="83"/>
+    <tableColumn id="13" xr3:uid="{49872571-DA0E-45EB-9AB2-A14C23A945D1}" name="Otros conceptos" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="Celeste con borde grueso" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5998DE2E-191A-4DEC-9BBC-4ECB5CD2FD4C}" name="planta_temporaria" displayName="planta_temporaria" ref="A12:N13" totalsRowShown="0" dataDxfId="74">
-  <autoFilter ref="A12:N13" xr:uid="{5998DE2E-191A-4DEC-9BBC-4ECB5CD2FD4C}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{F4251216-8244-4AEB-9513-8FFE7A7C638B}" name="CUIL" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{A8860631-61AD-4406-9850-B79F8A4BFBB1}" name="Apellido y nombre" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{9FA262DE-BFE4-4CE5-BBC5-FD023BBB432E}" name="Situacion de revista" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{2747FE3C-0AEB-463F-9DF6-9EAD41508129}" name="Fecha de alta" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{F822C7FD-6976-440D-B1E6-AED4EC1528E0}" name="Remuneracion neta" dataDxfId="69"/>
-    <tableColumn id="14" xr3:uid="{79622528-C1D1-481D-92EA-06E5C197B5C2}" name="Tipo liquidacion" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{A74C35EE-276B-4077-AD32-A4E8DA8B8740}" name="Bonificacion" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{16007301-6F26-485B-B28F-9050816B27E8}" name="Cantidad hs extras 50" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{B20A6E0C-FC83-4A5A-9576-907028C8FE9D}" name="Importe hs extras 50" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{548FECE0-60AE-4129-AC80-2E3B0DFF95D5}" name="Cantidad hs extras 100" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{8A24594A-8D94-4729-8559-9EC3CD3F5383}" name="Importe hs extras 100" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{457CE229-E397-4F4B-9083-BFA3E787A4A2}" name="ART" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{2D6129C8-6F48-4E00-8B14-3282160C55DD}" name="Seguro de vida" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{D46EFB6B-F4A6-4426-B78F-F3A84B98F7B7}" name="Otros conceptos" dataDxfId="60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5998DE2E-191A-4DEC-9BBC-4ECB5CD2FD4C}" name="planta_temporaria" displayName="planta_temporaria" ref="A12:O13" totalsRowShown="0" dataDxfId="81">
+  <autoFilter ref="A12:O13" xr:uid="{5998DE2E-191A-4DEC-9BBC-4ECB5CD2FD4C}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{F4251216-8244-4AEB-9513-8FFE7A7C638B}" name="CUIL" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{A8860631-61AD-4406-9850-B79F8A4BFBB1}" name="Apellido y nombre" dataDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{0E6379AD-127E-4504-BBD2-E83300043205}" name="Legajo" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9FA262DE-BFE4-4CE5-BBC5-FD023BBB432E}" name="Situacion de revista" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{2747FE3C-0AEB-463F-9DF6-9EAD41508129}" name="Fecha de alta" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{F822C7FD-6976-440D-B1E6-AED4EC1528E0}" name="Remuneracion neta" dataDxfId="76"/>
+    <tableColumn id="14" xr3:uid="{79622528-C1D1-481D-92EA-06E5C197B5C2}" name="Tipo liquidacion" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{A74C35EE-276B-4077-AD32-A4E8DA8B8740}" name="Bonificacion" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{16007301-6F26-485B-B28F-9050816B27E8}" name="Cantidad hs extras 50" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{B20A6E0C-FC83-4A5A-9576-907028C8FE9D}" name="Importe hs extras 50" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{548FECE0-60AE-4129-AC80-2E3B0DFF95D5}" name="Cantidad hs extras 100" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{8A24594A-8D94-4729-8559-9EC3CD3F5383}" name="Importe hs extras 100" dataDxfId="70"/>
+    <tableColumn id="11" xr3:uid="{457CE229-E397-4F4B-9083-BFA3E787A4A2}" name="ART" dataDxfId="69"/>
+    <tableColumn id="12" xr3:uid="{2D6129C8-6F48-4E00-8B14-3282160C55DD}" name="Seguro de vida" dataDxfId="68"/>
+    <tableColumn id="13" xr3:uid="{D46EFB6B-F4A6-4426-B78F-F3A84B98F7B7}" name="Otros conceptos" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="Celeste con borde grueso" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9ECCA5DF-1DD9-4E01-ACCA-F86347AB6866}" name="monotributista" displayName="monotributista" ref="A17:N18" totalsRowShown="0" dataDxfId="59">
-  <autoFilter ref="A17:N18" xr:uid="{9ECCA5DF-1DD9-4E01-ACCA-F86347AB6866}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{02E894EC-DB86-4466-B171-E954C749308B}" name="CUIL" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{651F6E6C-4AF8-491C-8259-7C51A1AB85DF}" name="Apellido y nombre" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{81609468-02E9-49D5-AE70-8678EA50DDB0}" name="Situacion de revista" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{81143153-6852-4C96-AA1F-97BB38C158BB}" name="Fecha de alta" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{C349A50B-7BA0-41CF-8839-9005A2212AFA}" name="Remuneracion neta" dataDxfId="54"/>
-    <tableColumn id="14" xr3:uid="{AFA15C3F-2EB9-4932-8F7F-BD261FABCC7B}" name="Tipo liquidacion" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{A2CB7A9E-FA7D-4EA3-BDD1-DB593C28556B}" name="Bonificacion" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{3835806E-F2BA-4B52-B668-5EE4DE1A8C1B}" name="Cantidad hs extras 50" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{1A863F09-2FD1-40C7-A033-9319E3664A4A}" name="Importe hs extras 50" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{546D29EC-79FD-487E-98AD-DF9257456E8B}" name="Cantidad hs extras 100" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{0FE772F8-4C79-4C36-82AB-E3A38D6092FE}" name="Importe hs extras 100" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{71B72C64-EEBD-4918-AC4E-7450D578577A}" name="ART" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{1CAEA488-2FAB-42F0-B5E5-F1CD71077418}" name="Seguro de vida" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{F1833B5B-E818-44CC-966D-9CE4E3784FA0}" name="Otros conceptos" dataDxfId="45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9ECCA5DF-1DD9-4E01-ACCA-F86347AB6866}" name="monotributista" displayName="monotributista" ref="A17:O18" totalsRowShown="0" dataDxfId="66">
+  <autoFilter ref="A17:O18" xr:uid="{9ECCA5DF-1DD9-4E01-ACCA-F86347AB6866}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{02E894EC-DB86-4466-B171-E954C749308B}" name="CUIL" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{651F6E6C-4AF8-491C-8259-7C51A1AB85DF}" name="Apellido y nombre" dataDxfId="64"/>
+    <tableColumn id="15" xr3:uid="{F1C647CA-970D-458E-9A4D-AB634180430A}" name="Legajo" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{81609468-02E9-49D5-AE70-8678EA50DDB0}" name="Situacion de revista" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{81143153-6852-4C96-AA1F-97BB38C158BB}" name="Fecha de alta" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{C349A50B-7BA0-41CF-8839-9005A2212AFA}" name="Remuneracion neta" dataDxfId="61"/>
+    <tableColumn id="14" xr3:uid="{AFA15C3F-2EB9-4932-8F7F-BD261FABCC7B}" name="Tipo liquidacion" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{A2CB7A9E-FA7D-4EA3-BDD1-DB593C28556B}" name="Bonificacion" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{3835806E-F2BA-4B52-B668-5EE4DE1A8C1B}" name="Cantidad hs extras 50" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{1A863F09-2FD1-40C7-A033-9319E3664A4A}" name="Importe hs extras 50" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{546D29EC-79FD-487E-98AD-DF9257456E8B}" name="Cantidad hs extras 100" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{0FE772F8-4C79-4C36-82AB-E3A38D6092FE}" name="Importe hs extras 100" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{71B72C64-EEBD-4918-AC4E-7450D578577A}" name="ART" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{1CAEA488-2FAB-42F0-B5E5-F1CD71077418}" name="Seguro de vida" dataDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{F1833B5B-E818-44CC-966D-9CE4E3784FA0}" name="Otros conceptos" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="Celeste con borde grueso" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0DECD3D-CBE1-4C9C-BFF3-14415BAB01AD}" name="percibe_retribucion_subsidio" displayName="percibe_retribucion_subsidio" ref="A22:N23" totalsRowShown="0" dataDxfId="44">
-  <autoFilter ref="A22:N23" xr:uid="{D0DECD3D-CBE1-4C9C-BFF3-14415BAB01AD}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{EEB19FD2-EBF2-4F1E-B08C-953A63E540F7}" name="CUIL" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{67FCC5DB-3DA0-41BE-A9CB-A71DE7FA3A73}" name="Apellido y nombre" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{FF033DDC-7FA8-4279-8B16-4616F8B6F2B3}" name="Situacion de revista" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{94B4D120-3748-4B43-A6E8-0698D1662F24}" name="Fecha de alta" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{6A64B47C-CA6C-4457-BAED-DC106D9ED375}" name="Remuneracion neta" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{0D0268D0-822A-4234-8E43-51CC9D815D8B}" name="Tipo liquidacion" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{37B714E2-F1EB-4A69-B247-9E93CD53D42C}" name="Bonificacion" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{405D5DB7-71FD-4E67-AA94-714EF59225CE}" name="Cantidad hs extras 50" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{C338B752-BCD6-4F7A-BA2B-ACDFD5605849}" name="Importe hs extras 50" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{241B482C-D5A1-408D-BF61-3C265AFD85B4}" name="Cantidad hs extras 100" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{038DBEF9-2274-4A06-BB51-648C4D7FCBAF}" name="Importe hs extras 100" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{2E93499D-053F-4884-9A65-CDEB563BE948}" name="ART" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{F2CFA078-2FAA-4E31-A88D-E6D763073D28}" name="Seguro de vida" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{B3228B1C-F7A1-43DC-AD3A-69686241E560}" name="Otros conceptos" dataDxfId="30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D0DECD3D-CBE1-4C9C-BFF3-14415BAB01AD}" name="percibe_retribucion_subsidio" displayName="percibe_retribucion_subsidio" ref="A22:O23" totalsRowShown="0" dataDxfId="51">
+  <autoFilter ref="A22:O23" xr:uid="{D0DECD3D-CBE1-4C9C-BFF3-14415BAB01AD}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{EEB19FD2-EBF2-4F1E-B08C-953A63E540F7}" name="CUIL" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{67FCC5DB-3DA0-41BE-A9CB-A71DE7FA3A73}" name="Apellido y nombre" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{4C3E4C67-EEFC-480D-B272-48818F3E1D2E}" name="Legajo" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FF033DDC-7FA8-4279-8B16-4616F8B6F2B3}" name="Situacion de revista" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{94B4D120-3748-4B43-A6E8-0698D1662F24}" name="Fecha de alta" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{6A64B47C-CA6C-4457-BAED-DC106D9ED375}" name="Remuneracion neta" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{0D0268D0-822A-4234-8E43-51CC9D815D8B}" name="Tipo liquidacion" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{37B714E2-F1EB-4A69-B247-9E93CD53D42C}" name="Bonificacion" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{405D5DB7-71FD-4E67-AA94-714EF59225CE}" name="Cantidad hs extras 50" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{C338B752-BCD6-4F7A-BA2B-ACDFD5605849}" name="Importe hs extras 50" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{241B482C-D5A1-408D-BF61-3C265AFD85B4}" name="Cantidad hs extras 100" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{038DBEF9-2274-4A06-BB51-648C4D7FCBAF}" name="Importe hs extras 100" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{2E93499D-053F-4884-9A65-CDEB563BE948}" name="ART" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{F2CFA078-2FAA-4E31-A88D-E6D763073D28}" name="Seguro de vida" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{B3228B1C-F7A1-43DC-AD3A-69686241E560}" name="Otros conceptos" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="Celeste con borde grueso" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{142750E3-6F4B-4B2D-AE3B-27E9181098AC}" name="presta_servicios" displayName="presta_servicios" ref="A27:N28" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="A27:N28" xr:uid="{142750E3-6F4B-4B2D-AE3B-27E9181098AC}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{207B5EFD-B8F0-4326-912F-A209FF479521}" name="CUIL" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{87C5F996-DAD5-48F5-B55F-5F9A46865CB6}" name="Apellido y nombre" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{E76EF218-5076-4A0C-95E3-2D9B112DCFE6}" name="Situacion de revista" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{FA45EFE7-0672-4CE1-BB49-90496ACE4E55}" name="Fecha de alta" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{D9300B8C-CDF2-4BCE-BA19-C407E6A64FB4}" name="Remuneracion neta" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{2E9DDCC1-19E5-4D66-91F1-76BA9AB2A6FE}" name="Tipo liquidacion" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{304A7BA4-A239-4F82-ABAE-E60A05392371}" name="Bonificacion" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{15B7239A-4A23-4730-A9AA-E4AD24089A36}" name="Cantidad hs extras 50" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{CE30B14A-49E4-4723-A570-5A5B9D32B07E}" name="Importe hs extras 50" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{C9A11DAA-CF61-4E85-BCB9-2C9C0D0CEFAB}" name="Cantidad hs extras 100" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{1202AE59-06A0-45C2-830A-E89C11601A14}" name="Importe hs extras 100" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{A5055EEE-818A-4753-8DAE-75064B0148AD}" name="ART" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{4302CD67-FD1D-46FC-B4F1-B4BA4BE73823}" name="Seguro de vida" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{1E23A87E-8ABD-4D2B-8C64-CF5A006C2520}" name="Otros conceptos" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{142750E3-6F4B-4B2D-AE3B-27E9181098AC}" name="presta_servicios" displayName="presta_servicios" ref="A27:O28" totalsRowShown="0" dataDxfId="36">
+  <autoFilter ref="A27:O28" xr:uid="{142750E3-6F4B-4B2D-AE3B-27E9181098AC}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{207B5EFD-B8F0-4326-912F-A209FF479521}" name="CUIL" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{87C5F996-DAD5-48F5-B55F-5F9A46865CB6}" name="Apellido y nombre" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{9678303B-AE23-4295-A1FE-4A96B94D7379}" name="Legajo" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E76EF218-5076-4A0C-95E3-2D9B112DCFE6}" name="Situacion de revista" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{FA45EFE7-0672-4CE1-BB49-90496ACE4E55}" name="Fecha de alta" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{D9300B8C-CDF2-4BCE-BA19-C407E6A64FB4}" name="Remuneracion neta" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{2E9DDCC1-19E5-4D66-91F1-76BA9AB2A6FE}" name="Tipo liquidacion" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{304A7BA4-A239-4F82-ABAE-E60A05392371}" name="Bonificacion" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{15B7239A-4A23-4730-A9AA-E4AD24089A36}" name="Cantidad hs extras 50" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{CE30B14A-49E4-4723-A570-5A5B9D32B07E}" name="Importe hs extras 50" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{C9A11DAA-CF61-4E85-BCB9-2C9C0D0CEFAB}" name="Cantidad hs extras 100" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{1202AE59-06A0-45C2-830A-E89C11601A14}" name="Importe hs extras 100" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{A5055EEE-818A-4753-8DAE-75064B0148AD}" name="ART" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{4302CD67-FD1D-46FC-B4F1-B4BA4BE73823}" name="Seguro de vida" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{1E23A87E-8ABD-4D2B-8C64-CF5A006C2520}" name="Otros conceptos" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="Celeste con borde grueso" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{281BBCCF-DB4B-4C40-ADCD-C55A84950D12}" name="percibe_subsidio" displayName="percibe_subsidio" ref="A32:N33" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="A32:N33" xr:uid="{281BBCCF-DB4B-4C40-ADCD-C55A84950D12}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{3AA08A5C-94B8-4DC4-A812-D7F9666DCA92}" name="CUIL" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{8641964C-737E-432A-8EBA-826B2BC314AF}" name="Apellido y nombre" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{EC004C0E-4A28-49E4-89A6-9D681CD1EC14}" name="Situacion de revista" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{0BEB6406-E577-4F59-ACC9-EED1D602DB59}" name="Fecha de alta" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{5422018B-504D-4B92-A16B-6B28E0D8EE79}" name="Remuneracion neta" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{4978182D-11CD-4903-B0C7-EF769CA47223}" name="Tipo liquidacion" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{A8609D7E-EBC1-449F-9A6A-0FCD3B9AC861}" name="Bonificacion" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{0A59A371-9D71-4158-B9A0-3AC758EE93F1}" name="Cantidad hs extras 50" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{8AECD060-E838-4049-8420-A7FB506B9F30}" name="Importe hs extras 50" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{B7037EF5-4AC5-4293-BDF5-836F757FE7DE}" name="Cantidad hs extras 100" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{CE844805-AD5C-4415-B0C5-F24CE1BCE94E}" name="Importe hs extras 100" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{19E61F63-CB5A-4082-814A-916FD58F91B3}" name="ART" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{123A896E-E4A6-41B6-A6D2-064B1400BCD1}" name="Seguro de vida" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{9E98CEF0-B2E4-4A40-B716-0E0313CBEC8A}" name="Otros conceptos" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{281BBCCF-DB4B-4C40-ADCD-C55A84950D12}" name="percibe_subsidio" displayName="percibe_subsidio" ref="A32:O33" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A32:O33" xr:uid="{281BBCCF-DB4B-4C40-ADCD-C55A84950D12}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{3AA08A5C-94B8-4DC4-A812-D7F9666DCA92}" name="CUIL" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{8641964C-737E-432A-8EBA-826B2BC314AF}" name="Apellido y nombre" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{671BF1DF-2413-4C33-8F7F-23E71765509B}" name="Legajo" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{EC004C0E-4A28-49E4-89A6-9D681CD1EC14}" name="Situacion de revista" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{0BEB6406-E577-4F59-ACC9-EED1D602DB59}" name="Fecha de alta" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{5422018B-504D-4B92-A16B-6B28E0D8EE79}" name="Remuneracion neta" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{4978182D-11CD-4903-B0C7-EF769CA47223}" name="Tipo liquidacion" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{A8609D7E-EBC1-449F-9A6A-0FCD3B9AC861}" name="Bonificacion" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{0A59A371-9D71-4158-B9A0-3AC758EE93F1}" name="Cantidad hs extras 50" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{8AECD060-E838-4049-8420-A7FB506B9F30}" name="Importe hs extras 50" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{B7037EF5-4AC5-4293-BDF5-836F757FE7DE}" name="Cantidad hs extras 100" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{CE844805-AD5C-4415-B0C5-F24CE1BCE94E}" name="Importe hs extras 100" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{19E61F63-CB5A-4082-814A-916FD58F91B3}" name="ART" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{123A896E-E4A6-41B6-A6D2-064B1400BCD1}" name="Seguro de vida" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{9E98CEF0-B2E4-4A40-B716-0E0313CBEC8A}" name="Otros conceptos" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Celeste con borde grueso" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2621,18 +2793,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1C0B29-F716-4109-A774-D2B529042019}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
@@ -2641,28 +2812,27 @@
     <col min="10" max="10" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.453125" customWidth="1"/>
+    <col min="13" max="15" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2670,108 +2840,112 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2779,76 +2953,80 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>7</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>8</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>9</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2856,76 +3034,80 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>6</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>5</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>7</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>8</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>9</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2933,76 +3115,80 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>35</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>13</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>4</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>6</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>5</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>7</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>8</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>9</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3010,76 +3196,80 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>35</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>6</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>5</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>7</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>8</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>9</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3087,76 +3277,80 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>35</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>4</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>6</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>5</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>7</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>8</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>9</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -3164,57 +3358,61 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>35</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>13</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>4</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>6</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>5</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>7</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>8</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>9</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3227,37 +3425,53 @@
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="A21:M21"/>
   </mergeCells>
-  <dataValidations count="10">
+  <dataValidations count="14">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número y tenga entre 8 y 12 digitos, sin guiones." sqref="A18 A28 A3:A4 A8 A13 A33 A23" xr:uid="{0F187D34-775C-4CAD-A3ED-78081763FAE6}">
       <formula1>AND(ISNUMBER(--A3),LEN(A3)&gt;=8,LEN(A3)&lt;=12)</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea una fecha válida con el formato dd/mm/aaaa." sqref="D18 D28 D3:D4 D8 D13 D33 D23" xr:uid="{5956AAB8-4092-4163-B3B8-3628433A192C}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea una fecha válida con el formato dd/mm/aaaa." sqref="E18 E28 E8 E13 E33 E23 E3 D4" xr:uid="{5956AAB8-4092-4163-B3B8-3628433A192C}">
       <formula1>1</formula1>
       <formula2>72686</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número entero mayor a 0." sqref="J18 H28 J28 H3:H4 J3:J4 H8 J8 J13 H33 J33 H23 J23" xr:uid="{F735BC7C-213E-4BF8-90B8-08CE9D20F223}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número entero mayor a 0." sqref="K18 I28 K28 I8 K8 K13 I33 K33 I23 K23 K3 J4 I3 H4" xr:uid="{F735BC7C-213E-4BF8-90B8-08CE9D20F223}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número decimal, mayor a 0 y con solo dos dígitos decimales." sqref="E18 G18 K18:N18 I18 I28 K28:N28 G28 E28 G3:G4 I3:I4 E3:E4 K3:N4 I8 K8:N8 E8 E13 G13 I13 K13:N13 I33 K33:N33 E33 G33 K23:N23 G23 E23" xr:uid="{C407B6CA-7C46-4B34-9852-C26D83DD2465}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número decimal, mayor a 0 y con solo dos dígitos decimales." sqref="F18 H18 L18:O18 J18 J28 L28:O28 H28 F28 J8 L8:O8 F8 F13 H13 J13 L13:O13 J33 L33:O33 F33 H33 L23:O23 H23 F23 L3:O3 K4:N4 F3 E4 J3 I4 H3 G4" xr:uid="{C407B6CA-7C46-4B34-9852-C26D83DD2465}">
       <formula1>AND(   ISNUMBER(E3),   E3&gt;0,   ROUND(E3,2)=E3 )</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número decimal, mayor a 0 y con solo dos dígitos decimales" sqref="G8" xr:uid="{B2C18536-C72B-4822-8704-A47CBD0578EC}">
-      <formula1>AND(   ISNUMBER(G8),   G8&gt;0,   ROUND(G8,2)=G8 )</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número decimal, mayor a 0 y con solo dos dígitos decimales" sqref="H8" xr:uid="{B2C18536-C72B-4822-8704-A47CBD0578EC}">
+      <formula1>AND(   ISNUMBER(H8),   H8&gt;0,   ROUND(H8,2)=H8 )</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga " error="Valor inválido. Verifique que sea un número decimal, mayor a 0 y con solo dos dígitos decimales." sqref="I23" xr:uid="{C6F27E16-07B4-4BFB-A111-8D38B7CA760C}">
-      <formula1>AND(   ISNUMBER(I23),   I23&gt;0,   ROUND(I23,2)=I23 )</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga " error="Valor inválido. Verifique que sea un número decimal, mayor a 0 y con solo dos dígitos decimales." sqref="J23" xr:uid="{C6F27E16-07B4-4BFB-A111-8D38B7CA760C}">
+      <formula1>AND(   ISNUMBER(J23),   J23&gt;0,   ROUND(J23,2)=J23 )</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que el valor ingresado sea algunas de las opciones disponibles: SUELDO, 1° SAC, 2° SAC." sqref="F18 F28 F8 F13 F33 F23" xr:uid="{418BE18C-9747-4A00-9AC6-10B147E12856}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que el valor ingresado sea algunas de las opciones disponibles: SUELDO, 1° SAC, 2° SAC." sqref="G18 G28 G8 G13 G33 G23" xr:uid="{418BE18C-9747-4A00-9AC6-10B147E12856}">
       <formula1>"SUELDO,1° SAC,2° SAC"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número entero mayor a 0." sqref="H18" xr:uid="{322C7F70-0D87-43E9-9F47-B6127EAC15B7}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número entero mayor a 0." sqref="I18" xr:uid="{322C7F70-0D87-43E9-9F47-B6127EAC15B7}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número entero mayor a 0." sqref="H13" xr:uid="{A67F79E2-2215-4210-B51B-937ADCF1576F}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que sea un número entero mayor a 0." sqref="I13" xr:uid="{A67F79E2-2215-4210-B51B-937ADCF1576F}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que el valor ingresado sea algunas de las opciones disponibles: SUELDO, 1° SAC, 2° SAC." sqref="F3:F4" xr:uid="{C027BA0C-CC50-46E4-B2A4-3D0BCA5284BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Valor inválido. Verifique que el valor ingresado sea algunas de las opciones disponibles: SUELDO, 1° SAC, 2° SAC." sqref="F4 G3" xr:uid="{C027BA0C-CC50-46E4-B2A4-3D0BCA5284BE}">
       <formula1>"SUELDO,1° SAC,2°SAC"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Verifique que sea un número entero mayor a 0." sqref="C3 C13 C23 C28" xr:uid="{3AAD58D8-051E-4A85-A976-6C8F9B648DF2}">
+      <formula1>0</formula1>
+      <formula2>10000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga}" error="Verifique que sea un número entero mayor a 0." sqref="C8" xr:uid="{1DA1CD7A-7188-409F-9386-C4E3F778D90E}">
+      <formula1>0</formula1>
+      <formula2>10000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Verifique que sea un número entero mayor a 0." sqref="C33" xr:uid="{5ACDE6BB-951A-4A16-9BAB-4C761438ACDD}">
+      <formula1>0</formula1>
+      <formula2>10000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de carga" error="Verifique que sea un número entero mayor a 0." sqref="C18" xr:uid="{64BB8FC1-3F1D-4C44-B3D9-5F78A9D455DB}">
+      <formula1>0</formula1>
+      <formula2>10000000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3275,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F78B193-479D-4F02-A522-C7BFCC5078B3}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3286,69 +3500,73 @@
     <col min="1" max="1" width="50.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.453125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.453125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:O8">_xlfn.VSTACK(
+        <f t="array" ref="A2:P8">_xlfn.VSTACK(
   _xlfn.HSTACK(
     IF(_xlfn.SEQUENCE(ROWS(planta_politica[#Data])),"Personal de planta política",""),
     planta_politica[#Data]
@@ -3380,333 +3598,354 @@
 )</f>
         <v>Personal de planta política</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
+      <c r="B2" s="26">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="27">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26">
+        <v>0</v>
+      </c>
+      <c r="K2" s="27">
+        <v>0</v>
+      </c>
+      <c r="L2" s="26">
+        <v>0</v>
+      </c>
+      <c r="M2" s="27">
+        <v>0</v>
+      </c>
+      <c r="N2" s="27">
+        <v>0</v>
+      </c>
+      <c r="O2" s="27">
+        <v>0</v>
+      </c>
+      <c r="P2" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <v>Personal de planta permanente</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="B3" s="26">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <v>0</v>
+      </c>
+      <c r="N3" s="27">
+        <v>0</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0</v>
+      </c>
+      <c r="P3" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <v>Personal de planta temporaria</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
+        <v>0</v>
+      </c>
+      <c r="N4" s="27">
+        <v>0</v>
+      </c>
+      <c r="O4" s="27">
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <v>Personal que cobra por contrato/Monotributista</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="B5" s="26">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0</v>
+      </c>
+      <c r="K5" s="27">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="27">
+        <v>0</v>
+      </c>
+      <c r="N5" s="27">
+        <v>0</v>
+      </c>
+      <c r="O5" s="27">
+        <v>0</v>
+      </c>
+      <c r="P5" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <v>Personal que contrapresta percibiendo retribución por subsidio</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="B6" s="26">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="27">
+        <v>0</v>
+      </c>
+      <c r="N6" s="27">
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <v>Personal que presta servicios y percibe una remuneración y no se encuentran incluidos en ninguna de las opciones anteriores</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="B7" s="26">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <v>Personal que perciba un subsidio (Planes / Becas / Ayuda social temporaria)</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="B8" s="26">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0</v>
+      </c>
+      <c r="M8" s="27">
+        <v>0</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FUp6FIy3BkNUdYH7f3MRKtUUBtI9zeN8OYltYTgZVrwgbTF7cNXPaCdhxdFLUAeHahu9G7Y+djTZ0EWEMAd1sQ==" saltValue="yANR9nSwCpmDvTf/BmCsAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mFCCf+IXmezvwar+cR6G9PpwuBlE4O9ykK2ZjNt5hgAoWl3FrlE8297DayYAEXYuqXLfQvgAS0hZ5IipzOHGxQ==" saltValue="xdK6JrJV3NhncyXluwe+Tw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>